--- a/Cheatsheet illiyas/Math/Formulas.xlsx
+++ b/Cheatsheet illiyas/Math/Formulas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Machine-Learning\Cheatsheet illiyas\Math\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Machine Learning\github\Machine-Learning\Cheatsheet illiyas\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>x</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Mean Y</t>
+  </si>
+  <si>
+    <t>Pythagorean theorem</t>
   </si>
 </sst>
 </file>
@@ -409,6 +412,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371352</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="4572000"/>
+          <a:ext cx="980952" cy="361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -729,10 +770,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,6 +1160,11 @@
         <v>0.99688957255845378</v>
       </c>
     </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
